--- a/02_MasterWifoMannheim/99_Backup/Course53.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course53.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_2B59D2BFD3D0DB4B639A2011594760F35965FBE4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B9F3002-0E2D-42AF-8854-C046B036B621}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Modul</t>
-  </si>
-  <si>
-    <t>ACC 626 Transaction Accounting</t>
-  </si>
-  <si>
-    <t>Lerninhalte</t>
-  </si>
-  <si>
-    <t>Zentrale Themen der von Fallstudien erarbeitet. Der Kurs richtet sich an Studierende, die bereits Grundkenntnisse im Bereich der Rechnungslegung und Unternehmenstransaktion besitzen und demnach eine Vertiefung des Wissens in diesem Bereich anstreben. Im Speziellen werden sechs Themen im Rahmen des Kurses behandelt: Definition Unternehmenstransaktionen, Ökonomische Unternehmenstransaktionen, Rechtliche Rechnungslegung von Unternehmenstransaktionen nach und zuletzt die Besteuerung von Unternehmenstransaktionen.</t>
-  </si>
-  <si>
-    <t>Lern- und Qualifikationsziele</t>
-  </si>
-  <si>
-    <t>Die Studierenden erhalten einen Überblick Unternehmenstransaktionen und ein Verständnis der zentralen M&amp;A.</t>
-  </si>
-  <si>
-    <t>Voraussetzungen</t>
-  </si>
-  <si>
-    <t>Anmeldepflicht</t>
-  </si>
-  <si>
-    <t>Weitere Infos zur Anmeldung:</t>
-  </si>
-  <si>
-    <t>Lehrveranstaltungen und -formPräsenzstudiumSelbststudium Vorlesung 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Prüfungsform und –umfang</t>
-  </si>
-  <si>
-    <t>Schriftliche Klausur (45 Minuten)</t>
-  </si>
-  <si>
-    <t>Vorleistungen</t>
-  </si>
-  <si>
-    <t>Dozent(en)/Modulverantwortlicher</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Peter Wollmert</t>
-  </si>
-  <si>
-    <t>Dauer des Moduls</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Angebotsturnus</t>
-  </si>
-  <si>
-    <t>FSS</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
-    <t>Deutsch</t>
-  </si>
-  <si>
-    <t>Programmspezifische Lernziele</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Benotet</t>
-  </si>
-  <si>
-    <t>Verwendbarkeit</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.Sc. VWL, LL.M.</t>
-  </si>
-  <si>
-    <t>Accounting and Taxation (AAT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ACC 626 Transaction Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lerninhalte</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Zentrale Themen der von Fallstudien erarbeitet. Der Kurs richtet sich an Studierende, die bereits Grundkenntnisse im Bereich der Rechnungslegung und Unternehmenstransaktion besitzen und demnach eine Vertiefung des Wissens in diesem Bereich anstreben. Im Speziellen werden sechs Themen im Rahmen des Kurses behandelt: Definition Unternehmenstransaktionen, Ökonomische Unternehmenstransaktionen, Rechtliche Rechnungslegung von Unternehmenstransaktionen nach und zuletzt die Besteuerung von Unternehmenstransaktionen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lern- und Qualifikationsziele</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Die Studierenden erhalten einen Überblick Unternehmenstransaktionen und ein Verständnis der zentralen M&amp;A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Voraussetzungen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accounting and Taxation (AAT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anmeldepflicht</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Weitere Infos zur Anmeldung:</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lehrveranstaltungen und -formPräsenzstudiumSelbststudium Vorlesung 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Prüfungsform und –umfang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Schriftliche Klausur (45 Minuten)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vorleistungen</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dozent(en)/Modulverantwortlicher</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Peter Wollmert</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dauer des Moduls</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sprache</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Programmspezifische Lernziele</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Benotet</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Verwendbarkeit</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.Sc. VWL, LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
